--- a/docs/STEEZE Scrum Template for CS180.xlsx
+++ b/docs/STEEZE Scrum Template for CS180.xlsx
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Last Update</t>
   </si>
@@ -258,34 +258,16 @@
     <t>To Do (Sprint Backlog)</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edward Zabrensky, </t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ezabr001@ucr.edu</t>
-  </si>
-  <si>
     <t>Story Name</t>
   </si>
   <si>
     <t>Story (small features)</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Zabrensky, </t>
   </si>
   <si>
     <t>Story Points</t>
@@ -297,49 +279,34 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Task 1: On/Off (Edward Zabrensky)</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ezabr001@ucr.edu</t>
+  </si>
+  <si>
+    <t>On/Off</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>As a user, I want to turn on or turn off Cheaper on Amazon, so that I can disable the extension withoutremoving it from Chrome</t>
   </si>
   <si>
     <t>This is a SCRUM template designed for project managment in CS180. Replace this section with YOUR TEAM information</t>
   </si>
   <si>
-    <t>On/Off</t>
-  </si>
-  <si>
-    <t>Task 2: Search (Ed, Marcos)</t>
-  </si>
-  <si>
-    <t>Task3:Settings (Marcos)</t>
-  </si>
-  <si>
-    <t>Task4: history (Moker)</t>
-  </si>
-  <si>
-    <t>Task5: Compare (Eric)</t>
-  </si>
-  <si>
-    <t>As a user, I want to turn on or turn off Cheaper on Amazon, so that I can disable the extension withoutremoving it from Chrome</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
-    <t>Task 6: Visual Indicator (Moker)</t>
-  </si>
-  <si>
     <t>As a user, I want the extension to search for the product that I am looking at on Amazon, so I can find the cheaperdeal.</t>
-  </si>
-  <si>
-    <t>Task 7 : Price History (Eric)</t>
   </si>
   <si>
     <t>Compare</t>
   </si>
   <si>
     <t xml:space="preserve"> ​​As a user, I want the extension to compare and identify the cheaper product between thecurrent website and Amazon if it exists.</t>
-  </si>
-  <si>
-    <t>Task 8 : Review</t>
   </si>
   <si>
     <t>Tabs</t>
@@ -357,13 +324,19 @@
     <t>As a user, I want to view the last 10 products that I searched for, so that I can remember what Iwanted.</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>In Progress</t>
   </si>
   <si>
-    <t>Task 9: Review Legitmacy</t>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
   <si>
     <t>This is saving price history search history until product linking/search is complete</t>
+  </si>
+  <si>
+    <t>Task 1: On/Off (Edward Zabrensky)</t>
   </si>
   <si>
     <t>Reviews</t>
@@ -372,16 +345,52 @@
     <t>As a user, I want to view Amazon reviews of the product I am browsing, I want to do this bylooking at the statistics of the items, so that I can determine if it is a product worth buying by looking at whatothers have thought of the product.</t>
   </si>
   <si>
-    <t>"Product Backlog"</t>
-  </si>
-  <si>
     <t>only implement if have time</t>
   </si>
   <si>
     <t>Review Legitamacy</t>
   </si>
   <si>
+    <t>Task 2: Search  bar(Ed, Marcos)</t>
+  </si>
+  <si>
     <t>As a user, I want to be able to see the legitimacy of the Amazon reviews I am looking at todetermine if the product has a significant number of trustworthy reviews.</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Price History</t>
+  </si>
+  <si>
+    <t>As a user, I want to view the price history of the product I am searching, so that I can feelmore confident that I am getting the product for the best price when buying the item.</t>
+  </si>
+  <si>
+    <t>Task3:Settings (Marcos)</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Task4: history (Moker)</t>
+  </si>
+  <si>
+    <t>"Product Backlog"</t>
+  </si>
+  <si>
+    <t>Task5: Compare (Eric)</t>
+  </si>
+  <si>
+    <t>As a user, I want to turn on/off certain features of the extension, so that I can personalize the extensionto my needs.</t>
+  </si>
+  <si>
+    <t>Task 6: Visual Indicator (Moker)</t>
+  </si>
+  <si>
+    <t>Task 7 : Price History (Eric)</t>
+  </si>
+  <si>
+    <t>Task 8 : Review</t>
   </si>
   <si>
     <t>Should be initialized with the user stories and their estimated efforts (i.e., story points)</t>
@@ -390,19 +399,16 @@
     <t>Depending on the amount of story points, some stories may need to be split into smaller stories</t>
   </si>
   <si>
+    <t>Task 9: Review Legitmacy</t>
+  </si>
+  <si>
     <t>Add "Acceptance Criteria" to each user story by "insert note" to a spreadsheet cell (right click the cell)</t>
   </si>
   <si>
-    <t>Price History</t>
+    <t>Task 10: Creating a clickable button</t>
   </si>
   <si>
-    <t>As a user, I want to view the price history of the product I am searching, so that I can feelmore confident that I am getting the product for the best price when buying the item.</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>As a user, I want to turn on/off certain features of the extension, so that I can personalize the extensionto my needs.</t>
+    <t>Task 10: find similar items</t>
   </si>
   <si>
     <t>"Acceptance Criteria" define what it means by "Done"</t>
@@ -471,7 +477,7 @@
     <t>Marcos Miranda</t>
   </si>
   <si>
-    <t>Search, review legitamacy</t>
+    <t>Search, review legitamacy, find similar items, inject button</t>
   </si>
   <si>
     <t>..</t>
@@ -516,11 +522,11 @@
     <font>
       <b/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -538,14 +544,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -613,67 +619,67 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -716,7 +722,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -810,11 +816,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1254154150"/>
-        <c:axId val="799442080"/>
+        <c:axId val="1255627190"/>
+        <c:axId val="186902444"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1254154150"/>
+        <c:axId val="1255627190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,10 +835,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="799442080"/>
+        <c:crossAx val="186902444"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="799442080"/>
+        <c:axId val="186902444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -865,7 +871,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254154150"/>
+        <c:crossAx val="1255627190"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -942,69 +948,69 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="3">
         <v>43376.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
+      <c r="A4" s="9" t="s">
+        <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>17</v>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>31</v>
+      <c r="A6" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
-        <v>41</v>
+      <c r="A7" s="18" t="s">
+        <v>42</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>45</v>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="6" t="s">
-        <v>46</v>
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
-        <v>47</v>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -1013,72 +1019,72 @@
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>55</v>
+      <c r="B12" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="24"/>
-      <c r="B13" s="6" t="s">
-        <v>56</v>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="29"/>
     </row>
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14" s="30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="29"/>
     </row>
     <row r="15">
       <c r="A15" s="24"/>
-      <c r="B15" s="6" t="s">
-        <v>58</v>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C15" s="29"/>
     </row>
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" s="29"/>
     </row>
     <row r="17">
       <c r="A17" s="24"/>
-      <c r="B17" s="18" t="s">
-        <v>60</v>
+      <c r="B17" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="29"/>
     </row>
     <row r="18">
       <c r="A18" s="24"/>
-      <c r="B18" s="18" t="s">
-        <v>61</v>
+      <c r="B18" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="29"/>
     </row>
     <row r="19">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="29"/>
     </row>
     <row r="20">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="30"/>
       <c r="C20" s="29"/>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
-        <v>63</v>
+      <c r="A21" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="29"/>
     </row>
@@ -1088,18 +1094,18 @@
       <c r="C22" s="29"/>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="s">
-        <v>65</v>
+      <c r="A23" s="18" t="s">
+        <v>67</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>66</v>
+      <c r="B23" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="29"/>
     </row>
     <row r="24">
       <c r="A24" s="33"/>
       <c r="B24" s="34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" s="29"/>
     </row>
@@ -6039,73 +6045,83 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="2">
+      <c r="D2" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>30</v>
+      <c r="A9" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>37</v>
+      <c r="A10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -6137,191 +6153,191 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>11</v>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="27.0" customHeight="1">
+      <c r="A2" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
+      <c r="D2" s="6">
+        <v>2.0</v>
       </c>
-    </row>
-    <row r="2" ht="27.0" customHeight="1">
-      <c r="A2" s="9">
+      <c r="E2" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="6">
         <v>7.0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>18</v>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>9.0</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>23</v>
+      <c r="B10" s="17" t="s">
+        <v>40</v>
       </c>
-      <c r="D2" s="9">
-        <v>2.0</v>
+      <c r="C10" s="10" t="s">
+        <v>44</v>
       </c>
-      <c r="E2" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="D10" s="19">
         <v>4.0</v>
       </c>
-      <c r="E3" s="9">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="23"/>
       <c r="B11" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="31">
@@ -13288,47 +13304,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>1.0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>71</v>
+      <c r="B2" s="14" t="s">
+        <v>73</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>72</v>
+      <c r="C2" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>2.0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>75</v>
+      <c r="C3" s="14" t="s">
+        <v>76</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>75</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -16348,55 +16364,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="14">
         <v>0.0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="14">
         <v>36.0</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="14">
         <v>0.0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="14">
         <v>0.0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="14">
         <v>36.0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="14">
         <v>36.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10">
+      <c r="A3" s="14">
         <v>1.0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="14">
         <v>36.0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="14">
         <v>14.0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="14">
         <f>C3</f>
         <v>14</v>
       </c>
@@ -16410,16 +16426,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10">
+      <c r="A4" s="14">
         <v>2.0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="14">
         <v>36.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="14">
         <v>12.0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="14">
         <f>sum(C3:C4)</f>
         <v>26</v>
       </c>
@@ -16433,13 +16449,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="14">
         <v>3.0</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="14">
         <v>36.0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="14">
         <v>0.0</v>
       </c>
       <c r="D5">
@@ -16456,13 +16472,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="14">
         <v>4.0</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="14">
         <v>36.0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="14">
         <v>0.0</v>
       </c>
       <c r="D6">
@@ -16479,13 +16495,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10">
+      <c r="A7" s="14">
         <v>5.0</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="14">
         <v>36.0</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="14">
         <v>0.0</v>
       </c>
       <c r="D7">
@@ -16502,33 +16518,33 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="14">
         <v>6.0</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="F8">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10">
+      <c r="A9" s="14">
         <v>7.0</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="F9">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="14">
         <v>8.0</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="F10">
         <f t="shared" si="2"/>
         <v>0</v>
